--- a/装修费用.xlsx
+++ b/装修费用.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="钱" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
   <si>
     <t>地砖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,19 @@
   </si>
   <si>
     <t>全部总和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付定金1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地漏/水龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶/花洒/浴室柜
+水龙头/水盆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -215,6 +228,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,15 +526,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
@@ -573,6 +589,32 @@
       </c>
       <c r="C5" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>11000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <f>146.5+74</f>
+        <v>220.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8">
+        <f>SUM(B1:B7)</f>
+        <v>63936.5</v>
       </c>
     </row>
   </sheetData>
@@ -586,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -800,27 +842,27 @@
         <v>28</v>
       </c>
       <c r="I9">
-        <f>SUM(I2:I8)</f>
+        <f t="shared" ref="I9:N9" si="0">SUM(I2:I8)</f>
         <v>24.58</v>
       </c>
       <c r="J9">
-        <f>SUM(J2:J8)</f>
+        <f t="shared" si="0"/>
         <v>28.54</v>
       </c>
       <c r="K9">
-        <f>SUM(K2:K8)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="L9">
-        <f>SUM(L2:L8)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="M9">
-        <f>SUM(M2:M8)</f>
+        <f t="shared" si="0"/>
         <v>7.06</v>
       </c>
       <c r="N9">
-        <f>SUM(N2:N8)</f>
+        <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
       <c r="P9">

--- a/装修费用.xlsx
+++ b/装修费用.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
   <si>
     <t>地砖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>含水电改造2500定金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>进度过半</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,12 +146,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地漏/水龙头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>马桶/花洒/浴室柜
-水龙头/水盆</t>
+水龙头/水盆/淋浴房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200搬运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含水电改造2500定金
+20元转账手续费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地漏*5
+洗衣机水龙头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,95 +536,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>7500</v>
+      <c r="D1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>3400</v>
+        <v>7500</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>7700</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3400</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>26090</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>14371</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <f>26090+20</f>
+        <v>26110</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>14371</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>1355</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="27">
-      <c r="A6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
         <v>11000</v>
       </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7">
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
         <f>146.5+74</f>
         <v>220.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8">
-        <f>SUM(B1:B7)</f>
+      <c r="D8">
+        <f>146.5+74</f>
+        <v>220.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9">
+        <f>SUM(B2:B8)</f>
         <v>63936.5</v>
+      </c>
+      <c r="D9">
+        <f>SUM(D2:D8)</f>
+        <v>36130.5</v>
       </c>
     </row>
   </sheetData>
@@ -640,45 +678,45 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" t="s">
-        <v>24</v>
-      </c>
       <c r="R1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1.1499999999999999</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2">
         <v>1.1499999999999999</v>
@@ -692,13 +730,13 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3">
         <v>3.15</v>
@@ -721,13 +759,13 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>3.7</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4">
         <v>5.1100000000000003</v>
@@ -741,7 +779,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="H5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5">
         <v>0.7</v>
@@ -755,10 +793,10 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
         <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
       </c>
       <c r="I6">
         <v>4.3600000000000003</v>
@@ -770,18 +808,18 @@
         <v>5</v>
       </c>
       <c r="O6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>0.9</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7">
         <f>(369+46+14+62)/100</f>
@@ -804,13 +842,13 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>7.06</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8">
         <f>1+1.4*3</f>
@@ -833,13 +871,13 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9">
         <f t="shared" ref="I9:N9" si="0">SUM(I2:I8)</f>
@@ -874,13 +912,13 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>3.15</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10">
         <v>35</v>
@@ -906,13 +944,13 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>8.1999999999999993</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11">
         <f>I9*I10</f>
@@ -949,7 +987,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -957,12 +995,12 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>5.1100000000000003</v>
@@ -970,7 +1008,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -978,7 +1016,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>1.82</v>
@@ -986,12 +1024,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>0.7</v>
@@ -999,7 +1037,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>2.2999999999999998</v>
@@ -1007,7 +1045,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1015,12 +1053,12 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>436</v>
@@ -1028,7 +1066,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26">
         <v>207</v>
@@ -1036,7 +1074,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -1044,17 +1082,17 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <f>(369+46+14+62)/100</f>
@@ -1063,7 +1101,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32">
         <f>1+1.05+3.2</f>
@@ -1072,7 +1110,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -1080,7 +1118,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <f>(60*2+115*2)/100</f>
@@ -1089,7 +1127,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <f>2.1+1.8+1.7</f>
@@ -1098,12 +1136,12 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <f>1.2*3+0.95</f>
@@ -1112,7 +1150,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39">
         <f>1+1.4*3</f>
@@ -1121,7 +1159,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -1129,7 +1167,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B41">
         <f>1.1*2+0.65*2</f>
@@ -1138,7 +1176,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42">
         <v>3.6</v>
@@ -1163,15 +1201,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/装修费用.xlsx
+++ b/装修费用.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>地砖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +166,62 @@
   <si>
     <t>地漏*5
 洗衣机水龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣柜*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶几</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭桌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳妆台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑桌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯+开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晾衣架/吊顶灯/浴霸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -646,11 +702,87 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9">
+      <c r="A9" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25">
         <f>SUM(B2:B8)</f>
         <v>63936.5</v>
       </c>
-      <c r="D9">
+      <c r="D25">
         <f>SUM(D2:D8)</f>
         <v>36130.5</v>
       </c>

--- a/装修费用.xlsx
+++ b/装修费用.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>地砖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +222,10 @@
   </si>
   <si>
     <t>晾衣架/吊顶灯/浴霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门*3+推拉门+包口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,7 +599,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -710,7 +714,9 @@
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">

--- a/装修费用.xlsx
+++ b/装修费用.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
   <si>
     <t>地砖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +227,9 @@
   <si>
     <t>门*3+推拉门+包口</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化器</t>
   </si>
 </sst>
 </file>
@@ -599,7 +602,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -711,7 +714,9 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">

--- a/装修费用.xlsx
+++ b/装修费用.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="水电费用" sheetId="2" r:id="rId2"/>
     <sheet name="材料更换" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
   <si>
     <t>地砖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,13 +230,37 @@
   </si>
   <si>
     <t>净化器</t>
+  </si>
+  <si>
+    <t>增项:过门石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增项:阳台瓷砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己买的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +293,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -292,7 +347,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -305,12 +360,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -322,7 +466,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -599,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -611,191 +755,235 @@
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
       <c r="D1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="8">
         <v>7500</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="8">
         <v>7700</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="I2" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>3400</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="8">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="27">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" ht="27">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>26090</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <f>26090+20</f>
         <v>26110</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>14371</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>1355</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="27">
-      <c r="A7" s="3" t="s">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="27">
+      <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>11000</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>1100</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="27">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:9" ht="27">
+      <c r="A8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
         <f>146.5+74</f>
         <v>220.5</v>
       </c>
-      <c r="D8">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7">
         <f>146.5+74</f>
         <v>220.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="5">
+        <v>154</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="5">
+        <v>404</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="3" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="B25">
-        <f>SUM(B2:B8)</f>
-        <v>63936.5</v>
-      </c>
-      <c r="D25">
-        <f>SUM(D2:D8)</f>
-        <v>36130.5</v>
+    <row r="28" spans="1:4">
+      <c r="B28">
+        <f>SUM(B2:B27)</f>
+        <v>64494.5</v>
+      </c>
+      <c r="D28">
+        <f>SUM(D2:D27)</f>
+        <v>36688.5</v>
       </c>
     </row>
   </sheetData>
@@ -1337,7 +1525,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1346,6 +1534,9 @@
       <c r="A1" t="s">
         <v>7</v>
       </c>
+      <c r="B1">
+        <v>154</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">

--- a/装修费用.xlsx
+++ b/装修费用.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="水电费用" sheetId="2" r:id="rId2"/>
     <sheet name="材料更换" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
   <si>
     <t>地砖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,14 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>灯+开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晾衣架/吊顶灯/浴霸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>门*3+推拉门+包口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,13 +246,60 @@
   <si>
     <t>美缝</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晾衣架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a230r.1.14.53.iWyIdr&amp;id=10905215461&amp;ns=1&amp;abbucket=15&amp;skuId=82721242773</t>
+  </si>
+  <si>
+    <t>/吊顶灯/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴霸</t>
+  </si>
+  <si>
+    <t>估算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/10951829197.html
+https://item.jd.com/11060056461.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/10340132253.html 客厅灯送吸顶灯*1 999
+https://item.jd.com/10323578084.html 卧室灯*2 299*2
+餐厅吊灯 https://item.jd.com/11077866731.html 359
+玄关灯 https://item.jd.com/11089038464.html 89
+闺女灯 https://item.jd.com/10047976383.html 299
+https://item.jd.com/2360835.html 餐厅吸顶灯 339</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电补款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/11084652622.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +363,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -347,7 +394,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -381,80 +428,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -466,7 +457,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -743,30 +734,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F15" sqref="F15:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
         <v>33</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -780,10 +772,10 @@
         <v>7700</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -796,8 +788,11 @@
       <c r="D3" s="8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="27">
+      <c r="I3" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -812,7 +807,7 @@
         <v>26110</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -824,169 +819,255 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
         <v>1355</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="27">
-      <c r="A7" s="6" t="s">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="27">
+      <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B8" s="7">
         <v>11000</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D8" s="7">
         <v>1100</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="27">
-      <c r="A8" s="6" t="s">
+    <row r="9" spans="1:11" ht="27">
+      <c r="A9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B9" s="7">
         <f>146.5+74</f>
         <v>220.5</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7">
         <f>146.5+74</f>
         <v>220.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="5">
+    <row r="10" spans="1:11">
+      <c r="A10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="5">
         <v>154</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="5">
-        <v>404</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="5">
         <v>404</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="9" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="11">
+        <v>598</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="F13" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="3" t="s">
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="11">
+        <f>799*2</f>
+        <v>1598</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="49.5" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15">
+        <f>89+189</f>
+        <v>278</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="3" t="s">
+    <row r="17" spans="1:18">
+      <c r="A17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="3" t="s">
+    <row r="19" spans="1:18">
+      <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
+    <row r="20" spans="1:18">
+      <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
+    <row r="21" spans="1:18">
+      <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
+    <row r="22" spans="1:18">
+      <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
+    <row r="23" spans="1:18">
+      <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
+    <row r="24" spans="1:18">
+      <c r="A24" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3" t="s">
+    <row r="25" spans="1:18">
+      <c r="A25" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3" t="s">
+    <row r="26" spans="1:18" ht="82.5" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26">
+        <f>999+299*2+359+89+299+339</f>
+        <v>2683</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+    </row>
+    <row r="27" spans="1:18" ht="82.5" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="12">
+        <v>300</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3" t="s">
+    <row r="29" spans="1:18">
+      <c r="A29" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3" t="s">
+    <row r="30" spans="1:18">
+      <c r="A30" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3" t="s">
+    <row r="31" spans="1:18">
+      <c r="A31" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="B28">
-        <f>SUM(B2:B27)</f>
-        <v>64494.5</v>
-      </c>
-      <c r="D28">
-        <f>SUM(D2:D27)</f>
+    <row r="32" spans="1:18">
+      <c r="B32">
+        <f>SUM(B2:B31)</f>
+        <v>81951.5</v>
+      </c>
+      <c r="D32">
+        <f>SUM(D2:D31)</f>
         <v>36688.5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F26:R26"/>
+    <mergeCell ref="F15:K15"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/装修费用.xlsx
+++ b/装修费用.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
   <si>
     <t>地砖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,9 +219,6 @@
   <si>
     <t>门*3+推拉门+包口</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净化器</t>
   </si>
   <si>
     <t>增项:过门石</t>
@@ -292,7 +289,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://item.jd.com/11084652622.html</t>
+    <t>https://item.jd.com/1330332.html</t>
+  </si>
+  <si>
+    <t>净化器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/1500757.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/10657810674.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/11176497894.html</t>
   </si>
 </sst>
 </file>
@@ -394,7 +404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -439,6 +449,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:K15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -749,13 +765,13 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
         <v>33</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -772,7 +788,7 @@
         <v>7700</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -789,7 +805,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="27">
@@ -821,7 +837,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="12">
         <v>1000</v>
@@ -871,7 +887,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5">
         <v>154</v>
@@ -883,7 +899,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="5">
         <v>404</v>
@@ -895,7 +911,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="12">
         <v>1000</v>
@@ -905,7 +921,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="11">
         <v>598</v>
@@ -913,43 +929,49 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="11">
-        <f>799*2</f>
-        <v>1598</v>
+        <f>1299*2</f>
+        <v>2598</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="F14" t="s">
-        <v>67</v>
+      <c r="F14" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="49.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <f>89+189</f>
         <v>278</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
+      <c r="F15" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="3" t="s">
-        <v>50</v>
+      <c r="A16" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16">
+        <v>1299</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -964,11 +986,25 @@
       <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="B18">
+        <f>4399*3</f>
+        <v>13197</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="B19" s="13">
+        <f>4299*3</f>
+        <v>12897</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="3" t="s">
@@ -1002,31 +1038,31 @@
     </row>
     <row r="26" spans="1:18" ht="82.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <f>999+299*2+359+89+299+339</f>
         <v>2683</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
+      <c r="F26" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
     </row>
     <row r="27" spans="1:18" ht="82.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="12">
         <v>300</v>
@@ -1056,7 +1092,7 @@
     <row r="32" spans="1:18">
       <c r="B32">
         <f>SUM(B2:B31)</f>
-        <v>81951.5</v>
+        <v>110344.5</v>
       </c>
       <c r="D32">
         <f>SUM(D2:D31)</f>

--- a/装修费用.xlsx
+++ b/装修费用.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="水电费用" sheetId="2" r:id="rId2"/>
     <sheet name="材料更换" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
   <si>
     <t>地砖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -304,12 +304,48 @@
   <si>
     <t>https://item.jd.com/11176497894.html</t>
   </si>
+  <si>
+    <t>鞋柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳台柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家具家电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己买的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +417,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -404,7 +456,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -455,6 +507,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,6 +529,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -473,7 +608,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -750,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -773,140 +908,145 @@
       <c r="I1" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8">
-        <v>7500</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="8">
-        <v>7700</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8">
-        <v>3400</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1000</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27">
-      <c r="A4" s="2" t="s">
+    <row r="2" spans="1:11" s="17" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="11">
+        <f>SUM(B3:B13)</f>
+        <v>53392.5</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="27">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B3" s="2">
         <v>26090</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D3" s="2">
         <f>26090+20</f>
         <v>26110</v>
       </c>
+      <c r="F3" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="5">
+        <f>SUM(B3:B8)</f>
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>14371</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="F4" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="11">
+        <f>SUM(B10:B13)</f>
+        <v>10018.5</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>14371</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="12">
-        <v>1000</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1355</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1355</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" ht="27">
-      <c r="A8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="7">
-        <v>11000</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="27">
-      <c r="A9" s="6" t="s">
+      <c r="A7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="5">
+        <v>154</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="5">
+        <v>404</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="17" customFormat="1">
+      <c r="A9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="8">
+        <f>7500+200</f>
+        <v>7700</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="8">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="27">
+      <c r="A11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B11" s="7">
         <f>146.5+74</f>
         <v>220.5</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7">
         <f>146.5+74</f>
         <v>220.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="5">
-        <v>154</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="5">
-        <v>404</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5">
-        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -914,7 +1054,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="12">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -932,177 +1072,237 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:11" s="17" customFormat="1">
+      <c r="A14" s="9"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" s="17" customFormat="1">
+      <c r="A15" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3400</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="27">
+      <c r="A17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="7">
+        <v>11000</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B18" s="11">
         <f>1299*2</f>
         <v>2598</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="F14" s="13" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="F18" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="49.5" customHeight="1">
-      <c r="A15" s="3" t="s">
+    <row r="19" spans="1:11" ht="49.5" customHeight="1">
+      <c r="A19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B15">
+      <c r="B19">
         <f>89+189</f>
         <v>278</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F19" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="14" t="s">
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B16">
+      <c r="B20">
         <v>1299</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F20" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="3" t="s">
+    <row r="21" spans="1:11">
+      <c r="A21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B21" s="12">
         <v>10000</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="3" t="s">
+    <row r="22" spans="1:11">
+      <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B18">
+      <c r="B22">
         <f>4399*3</f>
         <v>13197</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F22" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="3" t="s">
+    <row r="23" spans="1:11">
+      <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B23" s="13">
         <f>4299*3</f>
         <v>12897</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F23" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="3" t="s">
+    <row r="24" spans="1:11">
+      <c r="A24" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="3" t="s">
+    <row r="25" spans="1:11" s="16" customFormat="1">
+      <c r="A25" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="16" customFormat="1">
+      <c r="A26" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="16" customFormat="1">
+      <c r="A27" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="16" customFormat="1">
+      <c r="A28" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="3" t="s">
+    <row r="30" spans="1:11">
+      <c r="A30" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="3" t="s">
+    <row r="31" spans="1:11">
+      <c r="A31" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="3" t="s">
+    <row r="32" spans="1:11">
+      <c r="A32" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="3" t="s">
+    <row r="33" spans="1:18">
+      <c r="A33" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="82.5" customHeight="1">
-      <c r="A26" s="3" t="s">
+    <row r="34" spans="1:18" ht="82.5" customHeight="1">
+      <c r="A34" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B26">
+      <c r="B34">
         <f>999+299*2+359+89+299+339</f>
         <v>2683</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F34" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-    </row>
-    <row r="27" spans="1:18" ht="82.5" customHeight="1">
-      <c r="A27" s="3" t="s">
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+    </row>
+    <row r="35" spans="1:18" ht="82.5" customHeight="1">
+      <c r="A35" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B35" s="12">
         <v>300</v>
       </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="3" t="s">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="3" t="s">
+    <row r="37" spans="1:18">
+      <c r="A37" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="3" t="s">
+    <row r="38" spans="1:18">
+      <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="3" t="s">
+    <row r="39" spans="1:18">
+      <c r="A39" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
-      <c r="B32">
-        <f>SUM(B2:B31)</f>
-        <v>110344.5</v>
-      </c>
-      <c r="D32">
-        <f>SUM(D2:D31)</f>
+    <row r="40" spans="1:18">
+      <c r="B40">
+        <f>SUM(B3:B39)</f>
+        <v>111044.5</v>
+      </c>
+      <c r="D40">
+        <f>SUM(D3:D39)</f>
         <v>36688.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F26:R26"/>
-    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F34:R34"/>
+    <mergeCell ref="F19:K19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/装修费用.xlsx
+++ b/装修费用.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="81">
   <si>
     <t>地砖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -338,6 +338,10 @@
   </si>
   <si>
     <t>自己买的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,7 +460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -511,17 +515,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -923,8 +930,8 @@
         <v>77</v>
       </c>
       <c r="G2" s="11">
-        <f>SUM(B3:B13)</f>
-        <v>53392.5</v>
+        <f>SUM(B3:B14)</f>
+        <v>51392.5</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -946,8 +953,8 @@
         <v>78</v>
       </c>
       <c r="G3" s="5">
-        <f>SUM(B3:B8)</f>
-        <v>43374</v>
+        <f>SUM(B3:B9)</f>
+        <v>41374</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -965,344 +972,355 @@
         <v>79</v>
       </c>
       <c r="G4" s="11">
-        <f>SUM(B10:B13)</f>
+        <f>SUM(B11:B14)</f>
         <v>10018.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" s="18" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="12">
-        <v>1000</v>
+        <v>80</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-2000</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
         <v>1355</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="5">
-        <v>154</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5">
-        <v>154</v>
-      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="5">
-        <v>404</v>
+        <v>154</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="5">
         <v>404</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="17" customFormat="1">
-      <c r="A9" s="4"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="8" t="s">
+      <c r="D9" s="5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="17" customFormat="1">
+      <c r="A10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B11" s="8">
         <f>7500+200</f>
         <v>7700</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D11" s="8">
         <v>7700</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="27">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:11" ht="27">
+      <c r="A12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B12" s="7">
         <f>146.5+74</f>
         <v>220.5</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7">
         <f>146.5+74</f>
         <v>220.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="12">
-        <v>1500</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-    </row>
     <row r="13" spans="1:11">
       <c r="A13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="11">
-        <v>598</v>
+        <v>55</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1500</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="F13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="17" customFormat="1">
-      <c r="A14" s="9"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="11">
+        <v>598</v>
+      </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="1:11" s="17" customFormat="1">
-      <c r="A15" s="21" t="s">
-        <v>76</v>
-      </c>
+      <c r="A15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:11" s="17" customFormat="1">
+      <c r="A16" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B17" s="8">
         <v>3400</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D17" s="8">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="27">
-      <c r="A17" s="6" t="s">
+    <row r="18" spans="1:11" ht="27">
+      <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B18" s="7">
         <v>11000</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D18" s="7">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="9" t="s">
+    <row r="19" spans="1:11">
+      <c r="A19" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B19" s="11">
         <f>1299*2</f>
         <v>2598</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="F18" s="13" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="F19" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="49.5" customHeight="1">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:11" ht="49.5" customHeight="1">
+      <c r="A20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <f>89+189</f>
         <v>278</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F20" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="14" t="s">
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>1299</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F21" s="13" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="12">
-        <v>10000</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <f>4399*3</f>
         <v>13197</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F23" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:11">
+      <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B24" s="13">
         <f>4299*3</f>
         <v>12897</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F24" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:11">
+      <c r="A25" s="3" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="16" customFormat="1">
-      <c r="A25" s="15" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="16" customFormat="1">
       <c r="A26" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="16" customFormat="1">
       <c r="A27" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="16" customFormat="1">
       <c r="A28" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="16" customFormat="1">
+      <c r="A29" s="15" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="20" t="s">
+    <row r="33" spans="1:18">
+      <c r="A33" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:18">
+      <c r="A34" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="82.5" customHeight="1">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:18" ht="82.5" customHeight="1">
+      <c r="A35" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <f>999+299*2+359+89+299+339</f>
         <v>2683</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F35" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-    </row>
-    <row r="35" spans="1:18" ht="82.5" customHeight="1">
-      <c r="A35" s="3" t="s">
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+    </row>
+    <row r="36" spans="1:18" ht="82.5" customHeight="1">
+      <c r="A36" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B36" s="12">
         <v>300</v>
       </c>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:18">
-      <c r="A36" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
-      <c r="B40">
-        <f>SUM(B3:B39)</f>
-        <v>111044.5</v>
-      </c>
-      <c r="D40">
-        <f>SUM(D3:D39)</f>
+    <row r="41" spans="1:18">
+      <c r="B41">
+        <f>SUM(B3:B40)</f>
+        <v>109044.5</v>
+      </c>
+      <c r="D41">
+        <f>SUM(D3:D40)</f>
         <v>36688.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F34:R34"/>
-    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="F35:R35"/>
+    <mergeCell ref="F20:K20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/装修费用.xlsx
+++ b/装修费用.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="水电费用" sheetId="2" r:id="rId2"/>
     <sheet name="材料更换" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>地砖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,12 +344,48 @@
     <t>优惠券</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.123.n4Sert&amp;id=44703018001&amp;ns=1&amp;abbucket=15#detail</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a230r.1.14.160.7Ew5AB&amp;id=527576551314&amp;ns=1&amp;abbucket=15&amp;sku_properties=29112:97926</t>
+  </si>
+  <si>
+    <t>https://detail.ju.taobao.com/home.htm?bid=0&amp;city=shanghai&amp;spm=a230r.1.14.29.ye58L8&amp;item_id=520772772097&amp;tracelog=fromsearch&amp;abbucket=15</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a220m.1000858.1000725.138.HvRbj2&amp;id=43177306406&amp;skuId=3206404911465&amp;areaId=110108&amp;city=110100&amp;user_id=742226257&amp;cat_id=50030787&amp;is_b=1&amp;rn=a2640831ab36b2baf80904e1050233a9</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a230r.1.14.30.YI5HyU&amp;id=539634932962&amp;ns=1&amp;abbucket=15</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a220m.1000858.1000725.110.2mWmrM&amp;id=22431471204&amp;skuId=3217006342696&amp;areaId=110108&amp;city=110100&amp;user_id=753247266&amp;cat_id=2&amp;is_b=1&amp;rn=0d203968672629e92b50cf4a1e48afc2</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/2974100.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/1143562.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/1760146.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/2820782.html
+https://item.jd.com/2077654.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家具家电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +473,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -460,7 +504,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -528,6 +572,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -536,74 +592,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -615,7 +603,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -894,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -985,7 +973,13 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="G5" s="11"/>
+      <c r="F5" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="22">
+        <f>SUM(B17:B40)</f>
+        <v>92373</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
@@ -1152,14 +1146,14 @@
         <f>89+189</f>
         <v>278</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="14" t="s">
@@ -1205,43 +1199,82 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="21" t="s">
         <v>40</v>
       </c>
+      <c r="B25">
+        <v>2000</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="26" spans="1:11" s="16" customFormat="1">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="21" t="s">
         <v>71</v>
       </c>
+      <c r="B26" s="16">
+        <v>600</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="27" spans="1:11" s="16" customFormat="1">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="21" t="s">
         <v>73</v>
+      </c>
+      <c r="B27" s="12">
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="16" customFormat="1">
       <c r="A28" s="15" t="s">
         <v>74</v>
       </c>
+      <c r="B28" s="12">
+        <v>700</v>
+      </c>
     </row>
     <row r="29" spans="1:11" s="16" customFormat="1">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="21" t="s">
         <v>72</v>
       </c>
+      <c r="B29" s="25">
+        <v>1200</v>
+      </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="21" t="s">
         <v>39</v>
       </c>
+      <c r="B30" s="26">
+        <v>3850</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="21" t="s">
         <v>41</v>
       </c>
+      <c r="B31" s="26">
+        <v>1250</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="21" t="s">
         <v>43</v>
+      </c>
+      <c r="B32" s="26">
+        <v>2259</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -1250,8 +1283,14 @@
       </c>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="21" t="s">
         <v>45</v>
+      </c>
+      <c r="B34">
+        <v>600</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="82.5" customHeight="1">
@@ -1262,23 +1301,23 @@
         <f>999+299*2+359+89+299+339</f>
         <v>2683</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-    </row>
-    <row r="36" spans="1:18" ht="82.5" customHeight="1">
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="3" t="s">
         <v>64</v>
       </c>
@@ -1288,29 +1327,57 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="21" t="s">
         <v>42</v>
       </c>
+      <c r="B37">
+        <v>3579</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="21" t="s">
         <v>48</v>
+      </c>
+      <c r="B38">
+        <v>1599</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="B39">
+        <v>3598</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="27.75" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="B40" s="22">
+        <f>7488+2499*2</f>
+        <v>12486</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
     </row>
     <row r="41" spans="1:18">
       <c r="B41">
         <f>SUM(B3:B40)</f>
-        <v>109044.5</v>
+        <v>143765.5</v>
       </c>
       <c r="D41">
         <f>SUM(D3:D40)</f>
@@ -1318,9 +1385,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="F35:R35"/>
     <mergeCell ref="F20:K20"/>
+    <mergeCell ref="F40:I40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/装修费用.xlsx
+++ b/装修费用.xlsx
@@ -574,16 +574,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -990,6 +990,10 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
+      <c r="G6">
+        <f>G2+G5</f>
+        <v>143765.5</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
@@ -1146,14 +1150,14 @@
         <f>89+189</f>
         <v>278</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="14" t="s">
@@ -1240,7 +1244,7 @@
       <c r="A29" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="23">
         <v>1200</v>
       </c>
     </row>
@@ -1248,7 +1252,7 @@
       <c r="A30" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="24">
         <v>3850</v>
       </c>
       <c r="F30" s="22" t="s">
@@ -1259,7 +1263,7 @@
       <c r="A31" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="24">
         <v>1250</v>
       </c>
       <c r="F31" s="22" t="s">
@@ -1270,7 +1274,7 @@
       <c r="A32" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="24">
         <v>2259</v>
       </c>
       <c r="F32" s="22" t="s">
@@ -1301,21 +1305,21 @@
         <f>999+299*2+359+89+299+339</f>
         <v>2683</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="3" t="s">
@@ -1367,12 +1371,12 @@
         <f>7488+2499*2</f>
         <v>12486</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:18">
       <c r="B41">

--- a/装修费用.xlsx
+++ b/装修费用.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="水电费用" sheetId="2" r:id="rId2"/>
     <sheet name="材料更换" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
   <si>
     <t>地砖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,6 +378,10 @@
   </si>
   <si>
     <t>家具家电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地砖 不够</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +508,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,6 +582,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -592,6 +599,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -603,7 +678,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -880,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -918,8 +993,8 @@
         <v>77</v>
       </c>
       <c r="G2" s="11">
-        <f>SUM(B3:B14)</f>
-        <v>51392.5</v>
+        <f>SUM(B3:B15)</f>
+        <v>51587.5</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -960,8 +1035,8 @@
         <v>79</v>
       </c>
       <c r="G4" s="11">
-        <f>SUM(B11:B14)</f>
-        <v>10018.5</v>
+        <f>SUM(B11:B15)</f>
+        <v>10213.5</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="18" customFormat="1">
@@ -977,7 +1052,7 @@
         <v>91</v>
       </c>
       <c r="G5" s="22">
-        <f>SUM(B17:B40)</f>
+        <f>SUM(B18:B41)</f>
         <v>92373</v>
       </c>
     </row>
@@ -992,7 +1067,7 @@
       <c r="D6" s="2"/>
       <c r="G6">
         <f>G2+G5</f>
-        <v>143765.5</v>
+        <v>143960.5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1051,348 +1126,360 @@
         <v>7700</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="27">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:11" s="25" customFormat="1">
+      <c r="A12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="8">
+        <v>195</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="27">
+      <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B13" s="7">
         <f>146.5+74</f>
         <v>220.5</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7">
         <f>146.5+74</f>
         <v>220.5</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="12">
-        <v>1500</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
     <row r="14" spans="1:11">
       <c r="A14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="11">
-        <v>598</v>
+        <v>55</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1500</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="F14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="17" customFormat="1">
-      <c r="A15" s="9"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="11">
+        <v>598</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16" spans="1:11" s="17" customFormat="1">
-      <c r="A16" s="20" t="s">
-        <v>76</v>
-      </c>
+      <c r="A16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:11" s="17" customFormat="1">
+      <c r="A17" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B18" s="8">
         <v>3400</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="8">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="27">
-      <c r="A18" s="6" t="s">
+    <row r="19" spans="1:11" ht="27">
+      <c r="A19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B19" s="7">
         <v>11000</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D19" s="7">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="9" t="s">
+    <row r="20" spans="1:11">
+      <c r="A20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B20" s="11">
         <f>1299*2</f>
         <v>2598</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="F19" s="13" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="F20" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="49.5" customHeight="1">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:11" ht="49.5" customHeight="1">
+      <c r="A21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <f>89+189</f>
         <v>278</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F21" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="14" t="s">
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>1299</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F22" s="13" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="12">
-        <v>10000</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <f>4399*3</f>
         <v>13197</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F24" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:11">
+      <c r="A25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B25" s="13">
         <f>4299*3</f>
         <v>12897</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F25" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="21" t="s">
+    <row r="26" spans="1:11">
+      <c r="A26" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>2000</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F26" s="22" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="16" customFormat="1">
-      <c r="A26" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="16">
-        <v>600</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="16" customFormat="1">
       <c r="A27" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="16">
+        <v>600</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="16" customFormat="1">
+      <c r="A28" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B28" s="12">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="16" customFormat="1">
-      <c r="A28" s="15" t="s">
+    <row r="29" spans="1:11" s="16" customFormat="1">
+      <c r="A29" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B29" s="12">
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="16" customFormat="1">
-      <c r="A29" s="21" t="s">
+    <row r="30" spans="1:11" s="16" customFormat="1">
+      <c r="A30" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B30" s="23">
         <v>1200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="24">
-        <v>3850</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" s="24">
-        <v>1250</v>
+        <v>3850</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="24">
+        <v>1250</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B33" s="24">
         <v>2259</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F33" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="19" t="s">
+    <row r="34" spans="1:18">
+      <c r="A34" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
-      <c r="A34" s="21" t="s">
+    <row r="35" spans="1:18">
+      <c r="A35" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>600</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F35" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="82.5" customHeight="1">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:18" ht="82.5" customHeight="1">
+      <c r="A36" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <f>999+299*2+359+89+299+339</f>
         <v>2683</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F36" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-    </row>
-    <row r="36" spans="1:18">
-      <c r="A36" s="3" t="s">
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B37" s="12">
         <v>300</v>
       </c>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:18">
-      <c r="A37" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>3579</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>87</v>
-      </c>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>3579</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>1599</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F39" s="22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="3" t="s">
+    <row r="40" spans="1:18">
+      <c r="A40" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>3598</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F40" s="22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A40" s="3" t="s">
+    <row r="41" spans="1:18" ht="27.75" customHeight="1">
+      <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B41" s="22">
         <f>7488+2499*2</f>
         <v>12486</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F41" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-    </row>
-    <row r="41" spans="1:18">
-      <c r="B41">
-        <f>SUM(B3:B40)</f>
-        <v>143765.5</v>
-      </c>
-      <c r="D41">
-        <f>SUM(D3:D40)</f>
-        <v>36688.5</v>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="B42">
+        <f>SUM(B3:B41)</f>
+        <v>143960.5</v>
+      </c>
+      <c r="D42">
+        <f>SUM(D3:D41)</f>
+        <v>36883.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F35:R35"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F36:R36"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="F41:I41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/装修费用.xlsx
+++ b/装修费用.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="94">
   <si>
     <t>地砖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,12 +384,16 @@
     <t>地砖 不够</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>增项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,6 +489,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -508,7 +528,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -591,6 +611,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -958,7 +987,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -968,7 +997,7 @@
     <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>52</v>
       </c>
@@ -984,8 +1013,11 @@
       <c r="K1" s="12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="17" customFormat="1">
+      <c r="L1" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="17" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
@@ -998,7 +1030,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="27">
+    <row r="3" spans="1:12" ht="27">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1020,7 +1052,7 @@
         <v>41374</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1039,7 +1071,7 @@
         <v>10213.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="18" customFormat="1">
+    <row r="5" spans="1:12" s="18" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
@@ -1056,11 +1088,11 @@
         <v>92373</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="30">
         <v>1000</v>
       </c>
       <c r="C6" s="2"/>
@@ -1070,7 +1102,7 @@
         <v>143960.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1082,36 +1114,36 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="30">
         <v>154</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5">
+      <c r="C8" s="30"/>
+      <c r="D8" s="30">
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:12">
+      <c r="A9" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="30">
         <v>404</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30">
         <v>404</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="17" customFormat="1">
+    <row r="10" spans="1:12" s="17" customFormat="1">
       <c r="A10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="8" t="s">
         <v>0</v>
       </c>
@@ -1126,19 +1158,19 @@
         <v>7700</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="25" customFormat="1">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:12" s="25" customFormat="1">
+      <c r="A12" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="28">
         <v>195</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8">
+      <c r="C12" s="28"/>
+      <c r="D12" s="28">
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="27">
+    <row r="13" spans="1:12" ht="27">
       <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
@@ -1152,7 +1184,7 @@
         <v>220.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="9" t="s">
         <v>55</v>
       </c>
@@ -1162,7 +1194,7 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="9" t="s">
         <v>56</v>
       </c>
@@ -1175,7 +1207,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="17" customFormat="1">
+    <row r="16" spans="1:12" s="17" customFormat="1">
       <c r="A16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>

--- a/装修费用.xlsx
+++ b/装修费用.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="93">
   <si>
     <t>地砖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,14 +333,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>装修公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自己买的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>优惠券</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -386,6 +378,10 @@
   </si>
   <si>
     <t>增项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,19 +603,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -987,7 +983,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1013,8 +1009,8 @@
       <c r="K1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="28" t="s">
-        <v>93</v>
+      <c r="L1" s="26" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="17" customFormat="1">
@@ -1028,7 +1024,14 @@
         <f>SUM(B3:B15)</f>
         <v>51587.5</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2">
+        <f>SUM(B3:B9)</f>
+        <v>41374</v>
+      </c>
+      <c r="J2" s="17">
+        <f>SUM(B11:B15)</f>
+        <v>10213.5</v>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="27">
       <c r="A3" s="2" t="s">
@@ -1044,8 +1047,8 @@
         <f>26090+20</f>
         <v>26110</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>78</v>
+      <c r="F3" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="G3" s="5">
         <f>SUM(B3:B9)</f>
@@ -1063,17 +1066,17 @@
         <v>6</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="11">
+      <c r="F4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="7">
         <f>SUM(B11:B15)</f>
         <v>10213.5</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="18" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2">
         <v>-2000</v>
@@ -1081,7 +1084,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="F5" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G5" s="22">
         <f>SUM(B18:B41)</f>
@@ -1089,10 +1092,10 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="28">
         <v>1000</v>
       </c>
       <c r="C6" s="2"/>
@@ -1115,26 +1118,26 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="28">
         <v>154</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30">
+      <c r="C8" s="28"/>
+      <c r="D8" s="28">
         <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="28">
         <v>404</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30">
+      <c r="C9" s="28"/>
+      <c r="D9" s="28">
         <v>404</v>
       </c>
     </row>
@@ -1159,14 +1162,14 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="25" customFormat="1">
-      <c r="A12" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="28">
+      <c r="A12" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="26">
         <v>195</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28">
+      <c r="C12" s="26"/>
+      <c r="D12" s="26">
         <v>195</v>
       </c>
     </row>
@@ -1269,14 +1272,14 @@
         <f>89+189</f>
         <v>278</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="14" t="s">
@@ -1329,7 +1332,7 @@
         <v>2000</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="16" customFormat="1">
@@ -1340,7 +1343,7 @@
         <v>600</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="16" customFormat="1">
@@ -1375,7 +1378,7 @@
         <v>3850</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1386,7 +1389,7 @@
         <v>1250</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -1397,7 +1400,7 @@
         <v>2259</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -1413,7 +1416,7 @@
         <v>600</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="82.5" customHeight="1">
@@ -1424,21 +1427,21 @@
         <f>999+299*2+359+89+299+339</f>
         <v>2683</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="3" t="s">
@@ -1457,7 +1460,7 @@
         <v>3579</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -1468,7 +1471,7 @@
         <v>1599</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -1479,7 +1482,7 @@
         <v>3598</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="27.75" customHeight="1">
@@ -1490,12 +1493,12 @@
         <f>7488+2499*2</f>
         <v>12486</v>
       </c>
-      <c r="F41" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
+      <c r="F41" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
     </row>
     <row r="42" spans="1:18">
       <c r="B42">

--- a/装修费用.xlsx
+++ b/装修费用.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="水电费用" sheetId="2" r:id="rId2"/>
     <sheet name="材料更换" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="94">
   <si>
     <t>地砖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,6 +382,10 @@
   </si>
   <si>
     <t>装修公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +528,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -610,6 +614,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -624,74 +634,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -703,7 +645,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -980,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1087,8 +1029,8 @@
         <v>89</v>
       </c>
       <c r="G5" s="22">
-        <f>SUM(B18:B41)</f>
-        <v>92373</v>
+        <f>SUM(B18:B42)</f>
+        <v>95373</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1102,7 +1044,7 @@
       <c r="D6" s="2"/>
       <c r="G6">
         <f>G2+G5</f>
-        <v>143960.5</v>
+        <v>146960.5</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1272,14 +1214,14 @@
         <f>89+189</f>
         <v>278</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="14" t="s">
@@ -1419,102 +1361,110 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="82.5" customHeight="1">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:18" s="30" customFormat="1">
+      <c r="A36" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="23">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="82.5" customHeight="1">
+      <c r="A37" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <f>999+299*2+359+89+299+339</f>
         <v>2683</v>
       </c>
-      <c r="F36" s="29" t="s">
+      <c r="F37" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-    </row>
-    <row r="37" spans="1:18">
-      <c r="A37" s="3" t="s">
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B38" s="12">
         <v>300</v>
       </c>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:18">
-      <c r="A38" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>3579</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>85</v>
-      </c>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>3579</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>1599</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F40" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
-      <c r="A40" s="3" t="s">
+    <row r="41" spans="1:18">
+      <c r="A41" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>3598</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F41" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A41" s="3" t="s">
+    <row r="42" spans="1:18" ht="27.75" customHeight="1">
+      <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B42" s="22">
         <f>7488+2499*2</f>
         <v>12486</v>
       </c>
-      <c r="F41" s="29" t="s">
+      <c r="F42" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-    </row>
-    <row r="42" spans="1:18">
-      <c r="B42">
-        <f>SUM(B3:B41)</f>
-        <v>143960.5</v>
-      </c>
-      <c r="D42">
-        <f>SUM(D3:D41)</f>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="B43">
+        <f>SUM(B3:B42)</f>
+        <v>146960.5</v>
+      </c>
+      <c r="D43">
+        <f>SUM(D3:D42)</f>
         <v>36883.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F36:R36"/>
+    <mergeCell ref="F37:R37"/>
     <mergeCell ref="F21:K21"/>
-    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F42:I42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
